--- a/result_experiment.xlsx
+++ b/result_experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python project\SearchNews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A974DC11-A789-44D7-814E-976F8FB2EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00E79E5-9EC5-4DBE-9706-828104646FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="504" windowWidth="17280" windowHeight="8964" xr2:uid="{B4100A71-99E9-4F7A-99A2-4D8E6DED316C}"/>
+    <workbookView xWindow="2688" yWindow="852" windowWidth="17280" windowHeight="8964" xr2:uid="{B4100A71-99E9-4F7A-99A2-4D8E6DED316C}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
